--- a/public/import/意图.xlsx
+++ b/public/import/意图.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>意图</t>
+    <t>编号</t>
   </si>
   <si>
-    <t>创建时间</t>
+    <t>域</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>例子</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>标注话术</t>
   </si>
 </sst>
 </file>
@@ -28,8 +40,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -41,6 +53,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -48,10 +68,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,28 +95,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,6 +106,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -107,16 +121,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,9 +175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,38 +191,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,19 +213,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,97 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,13 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,43 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +404,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,24 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,41 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,156 +475,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1025,30 +1040,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/import/意图.xlsx
+++ b/public/import/意图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>编号</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>编码</t>
   </si>
   <si>
     <t>例子</t>
@@ -40,9 +43,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,9 +56,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,6 +103,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,21 +132,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,59 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -167,38 +191,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,25 +216,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,13 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,31 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,103 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,26 +410,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,6 +434,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -457,6 +456,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,188 +507,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,19 +1040,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,18 +1070,15 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="1"/>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>